--- a/max_margem_contrib/combinacoes_validas.xlsx
+++ b/max_margem_contrib/combinacoes_validas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D348"/>
+  <dimension ref="A1:D441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,14 +461,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Escondidinho']</t>
+          <t>['Bolinho']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>346.5</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>148.1333333333333</v>
+        <v>88.51666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -477,14 +477,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>291.4</v>
+        <v>102.33</v>
       </c>
       <c r="D3" t="n">
-        <v>176.6666666666667</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -493,14 +493,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Escondidinho']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>109.8</v>
+        <v>346.39</v>
       </c>
       <c r="D4" t="n">
-        <v>225.9</v>
+        <v>148.1333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -509,14 +509,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Macarrão']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>331.8</v>
+        <v>109.73334</v>
       </c>
       <c r="D5" t="n">
-        <v>138.8333333333333</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="6">
@@ -525,14 +525,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Estrogonofe']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.12</v>
+        <v>202.08</v>
       </c>
       <c r="D6" t="n">
-        <v>140.8833333333333</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -541,14 +541,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>102.33</v>
+        <v>217.8</v>
       </c>
       <c r="D7" t="n">
-        <v>111.7333333333333</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="8">
@@ -557,14 +557,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Macarrão']</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75.68000000000001</v>
+        <v>331.73007</v>
       </c>
       <c r="D8" t="n">
-        <v>155.2833333333333</v>
+        <v>138.8333333333333</v>
       </c>
     </row>
     <row r="9">
@@ -573,14 +573,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Lasanha']</t>
+          <t>['Panqueca']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217.8</v>
+        <v>291.3</v>
       </c>
       <c r="D9" t="n">
-        <v>88.15000000000001</v>
+        <v>140.8833333333333</v>
       </c>
     </row>
     <row r="10">
@@ -589,14 +589,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>42.42</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>155.95</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -605,14 +605,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Estrogonofe']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>202.08</v>
+        <v>42.405</v>
       </c>
       <c r="D11" t="n">
-        <v>80.8</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="12">
@@ -621,14 +621,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>91</v>
+        <v>49.08</v>
       </c>
       <c r="D12" t="n">
-        <v>88.51666666666667</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="13">
@@ -637,14 +637,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Escondidinho']</t>
+          <t>['Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>693</v>
+        <v>182</v>
       </c>
       <c r="D13" t="n">
-        <v>296.2666666666667</v>
+        <v>177.0333333333333</v>
       </c>
     </row>
     <row r="14">
@@ -653,14 +653,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Macarrão']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>678.3</v>
+        <v>193.33</v>
       </c>
       <c r="D14" t="n">
-        <v>286.9666666666667</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="15">
@@ -669,14 +669,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>395.62</v>
+        <v>437.39</v>
       </c>
       <c r="D15" t="n">
-        <v>289.0166666666667</v>
+        <v>236.65</v>
       </c>
     </row>
     <row r="16">
@@ -685,14 +685,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>448.83</v>
+        <v>200.73334</v>
       </c>
       <c r="D16" t="n">
-        <v>259.8666666666667</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="17">
@@ -701,14 +701,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Lasanha']</t>
+          <t>['Bolinho', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>564.3</v>
+        <v>293.08</v>
       </c>
       <c r="D17" t="n">
-        <v>236.2833333333333</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="18">
@@ -717,14 +717,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Macarrão']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>548.5799999999999</v>
+        <v>422.73007</v>
       </c>
       <c r="D18" t="n">
-        <v>228.9333333333333</v>
+        <v>227.35</v>
       </c>
     </row>
     <row r="19">
@@ -733,14 +733,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>437.5</v>
+        <v>382.3</v>
       </c>
       <c r="D19" t="n">
-        <v>236.65</v>
+        <v>229.4</v>
       </c>
     </row>
     <row r="20">
@@ -749,14 +749,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>393.73</v>
+        <v>166.68</v>
       </c>
       <c r="D20" t="n">
-        <v>288.4</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -765,14 +765,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Lasanha']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>509.1999999999999</v>
+        <v>133.405</v>
       </c>
       <c r="D21" t="n">
-        <v>264.8166666666667</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="22">
@@ -781,14 +781,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>493.48</v>
+        <v>140.08</v>
       </c>
       <c r="D22" t="n">
-        <v>257.4666666666666</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="23">
@@ -797,14 +797,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>382.4</v>
+        <v>204.66</v>
       </c>
       <c r="D23" t="n">
-        <v>265.1833333333333</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -813,14 +813,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Macarrão']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>663.6</v>
+        <v>448.72</v>
       </c>
       <c r="D24" t="n">
-        <v>277.6666666666667</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="25">
@@ -829,14 +829,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>380.92</v>
+        <v>212.06334</v>
       </c>
       <c r="D25" t="n">
-        <v>279.7166666666667</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="26">
@@ -845,14 +845,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Empadão']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>434.13</v>
+        <v>304.41</v>
       </c>
       <c r="D26" t="n">
-        <v>250.5666666666667</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="27">
@@ -861,14 +861,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Macarrão']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>407.48</v>
+        <v>434.06007</v>
       </c>
       <c r="D27" t="n">
-        <v>294.1166666666667</v>
+        <v>250.5666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -877,14 +877,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Lasanha']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>549.6</v>
+        <v>393.63</v>
       </c>
       <c r="D28" t="n">
-        <v>226.9833333333333</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="29">
@@ -893,14 +893,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Quiche']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>374.22</v>
+        <v>178.01</v>
       </c>
       <c r="D29" t="n">
-        <v>294.7833333333333</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="30">
@@ -909,14 +909,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Estrogonofe']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>533.88</v>
+        <v>144.735</v>
       </c>
       <c r="D30" t="n">
-        <v>219.6333333333333</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="31">
@@ -925,14 +925,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Bolinho']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>422.8</v>
+        <v>151.41</v>
       </c>
       <c r="D31" t="n">
-        <v>227.35</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -941,14 +941,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Escondidinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>98.23999999999999</v>
+        <v>692.78</v>
       </c>
       <c r="D32" t="n">
-        <v>281.7666666666667</v>
+        <v>296.2666666666667</v>
       </c>
     </row>
     <row r="33">
@@ -957,14 +957,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Escondidinho', 'Macarrão']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>151.45</v>
+        <v>678.1200699999999</v>
       </c>
       <c r="D33" t="n">
-        <v>252.6166666666667</v>
+        <v>286.9666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -973,14 +973,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Escondidinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>124.8</v>
+        <v>637.6900000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>296.1666666666666</v>
+        <v>289.0166666666667</v>
       </c>
     </row>
     <row r="35">
@@ -989,14 +989,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Lasanha']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>266.92</v>
+        <v>422.07</v>
       </c>
       <c r="D35" t="n">
-        <v>229.0333333333333</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="36">
@@ -1005,14 +1005,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>91.53999999999999</v>
+        <v>395.47</v>
       </c>
       <c r="D36" t="n">
-        <v>296.8333333333333</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="37">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Estrogonofe']</t>
+          <t>['Esfiha', 'Macarrão']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>251.2</v>
+        <v>441.46341</v>
       </c>
       <c r="D37" t="n">
-        <v>221.6833333333333</v>
+        <v>294.1166666666667</v>
       </c>
     </row>
     <row r="38">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>140.12</v>
+        <v>401.03334</v>
       </c>
       <c r="D38" t="n">
-        <v>229.4</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -1053,14 +1053,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>204.66</v>
+        <v>185.41334</v>
       </c>
       <c r="D39" t="n">
-        <v>223.4666666666667</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="40">
@@ -1069,14 +1069,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>178.01</v>
+        <v>158.81334</v>
       </c>
       <c r="D40" t="n">
-        <v>267.0166666666667</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="41">
@@ -1085,14 +1085,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha']</t>
+          <t>['Estrogonofe', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>320.13</v>
+        <v>277.76</v>
       </c>
       <c r="D41" t="n">
-        <v>199.8833333333333</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="42">
@@ -1101,14 +1101,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Estrogonofe', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>144.75</v>
+        <v>251.16</v>
       </c>
       <c r="D42" t="n">
-        <v>267.6833333333333</v>
+        <v>257.4666666666666</v>
       </c>
     </row>
     <row r="43">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe']</t>
+          <t>['Macarrão', 'Macarrão']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>304.41</v>
+        <v>663.46014</v>
       </c>
       <c r="D43" t="n">
-        <v>192.5333333333333</v>
+        <v>277.6666666666667</v>
       </c>
     </row>
     <row r="44">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Macarrão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>193.33</v>
+        <v>623.03007</v>
       </c>
       <c r="D44" t="n">
-        <v>200.25</v>
+        <v>279.7166666666667</v>
       </c>
     </row>
     <row r="45">
@@ -1149,14 +1149,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Lasanha']</t>
+          <t>['Macarrão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>293.48</v>
+        <v>407.41007</v>
       </c>
       <c r="D45" t="n">
-        <v>243.4333333333333</v>
+        <v>226.9833333333333</v>
       </c>
     </row>
     <row r="46">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Estrogonofe']</t>
+          <t>['Macarrão', 'Quiche']</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>277.76</v>
+        <v>374.13507</v>
       </c>
       <c r="D46" t="n">
-        <v>236.0833333333333</v>
+        <v>294.7833333333333</v>
       </c>
     </row>
     <row r="47">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Macarrão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>166.68</v>
+        <v>380.81007</v>
       </c>
       <c r="D47" t="n">
-        <v>243.8</v>
+        <v>219.6333333333333</v>
       </c>
     </row>
     <row r="48">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha']</t>
+          <t>['Panqueca', 'Panqueca']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>435.6</v>
+        <v>582.6</v>
       </c>
       <c r="D48" t="n">
-        <v>176.3</v>
+        <v>281.7666666666667</v>
       </c>
     </row>
     <row r="49">
@@ -1213,14 +1213,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Quiche']</t>
+          <t>['Panqueca', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>260.22</v>
+        <v>366.98</v>
       </c>
       <c r="D49" t="n">
-        <v>244.1</v>
+        <v>229.0333333333333</v>
       </c>
     </row>
     <row r="50">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe']</t>
+          <t>['Panqueca', 'Quiche']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>419.88</v>
+        <v>333.705</v>
       </c>
       <c r="D50" t="n">
-        <v>168.95</v>
+        <v>296.8333333333333</v>
       </c>
     </row>
     <row r="51">
@@ -1245,14 +1245,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho']</t>
+          <t>['Panqueca', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>308.8</v>
+        <v>340.38</v>
       </c>
       <c r="D51" t="n">
-        <v>176.6666666666667</v>
+        <v>221.6833333333333</v>
       </c>
     </row>
     <row r="52">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['Quiche', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>244.5</v>
+        <v>151.36</v>
       </c>
       <c r="D52" t="n">
-        <v>236.75</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="53">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>133.42</v>
+        <v>118.085</v>
       </c>
       <c r="D53" t="n">
-        <v>244.4666666666666</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="54">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>404.16</v>
+        <v>124.76</v>
       </c>
       <c r="D54" t="n">
-        <v>161.6</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="55">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>293.08</v>
+        <v>91.485</v>
       </c>
       <c r="D55" t="n">
-        <v>169.3166666666667</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="56">
@@ -1325,14 +1325,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>182</v>
+        <v>98.16</v>
       </c>
       <c r="D56" t="n">
-        <v>177.0333333333333</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="57">
@@ -1341,14 +1341,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Lasanha']</t>
+          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>537.9299999999999</v>
+        <v>273</v>
       </c>
       <c r="D57" t="n">
-        <v>288.0333333333333</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="58">
@@ -1357,14 +1357,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>522.21</v>
+        <v>284.33</v>
       </c>
       <c r="D58" t="n">
-        <v>280.6833333333333</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="59">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>411.13</v>
+        <v>257.68</v>
       </c>
       <c r="D59" t="n">
-        <v>288.4</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="60">
@@ -1389,14 +1389,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>506.49</v>
+        <v>231.08</v>
       </c>
       <c r="D60" t="n">
-        <v>273.3333333333333</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -1405,14 +1405,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>395.41</v>
+        <v>269.01</v>
       </c>
       <c r="D61" t="n">
-        <v>281.05</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="62">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>284.33</v>
+        <v>242.41</v>
       </c>
       <c r="D62" t="n">
-        <v>288.7666666666667</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="63">
@@ -1437,14 +1437,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Lasanha']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>653.4</v>
+        <v>242.36</v>
       </c>
       <c r="D63" t="n">
-        <v>264.45</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="64">
@@ -1453,14 +1453,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>637.6799999999999</v>
+        <v>215.76</v>
       </c>
       <c r="D64" t="n">
-        <v>257.1</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="65">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>526.5999999999999</v>
+        <v>189.16</v>
       </c>
       <c r="D65" t="n">
-        <v>264.8166666666667</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="66">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>621.96</v>
+        <v>253.69</v>
       </c>
       <c r="D66" t="n">
-        <v>249.75</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="67">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>510.88</v>
+        <v>227.09</v>
       </c>
       <c r="D67" t="n">
-        <v>257.4666666666666</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="68">
@@ -1517,14 +1517,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>399.8</v>
+        <v>200.49</v>
       </c>
       <c r="D68" t="n">
-        <v>265.1833333333333</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="69">
@@ -1533,14 +1533,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>606.24</v>
+        <v>227.04</v>
       </c>
       <c r="D69" t="n">
-        <v>242.4</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="70">
@@ -1549,14 +1549,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>495.16</v>
+        <v>200.44</v>
       </c>
       <c r="D70" t="n">
-        <v>250.1166666666667</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="71">
@@ -1565,14 +1565,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>384.08</v>
+        <v>173.84</v>
       </c>
       <c r="D71" t="n">
-        <v>257.8333333333333</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="72">
@@ -1581,14 +1581,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>273</v>
+        <v>147.24</v>
       </c>
       <c r="D72" t="n">
-        <v>265.55</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="73">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Bolinho']</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>291.4</v>
+        <v>91</v>
       </c>
       <c r="D73" t="n">
-        <v>176.6666666666667</v>
+        <v>88.51666666666667</v>
       </c>
     </row>
     <row r="74">
@@ -1613,14 +1613,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>109.8</v>
+        <v>102.33</v>
       </c>
       <c r="D74" t="n">
-        <v>225.9</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="75">
@@ -1629,14 +1629,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['Macarrão']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>331.8</v>
+        <v>109.73334</v>
       </c>
       <c r="D75" t="n">
-        <v>138.8333333333333</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="76">
@@ -1645,14 +1645,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Estrogonofe']</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>49.12</v>
+        <v>202.08</v>
       </c>
       <c r="D76" t="n">
-        <v>140.8833333333333</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="77">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>102.33</v>
+        <v>217.8</v>
       </c>
       <c r="D77" t="n">
-        <v>111.7333333333333</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="78">
@@ -1677,14 +1677,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Macarrão']</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>75.68000000000001</v>
+        <v>331.73007</v>
       </c>
       <c r="D78" t="n">
-        <v>155.2833333333333</v>
+        <v>138.8333333333333</v>
       </c>
     </row>
     <row r="79">
@@ -1693,14 +1693,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['Lasanha']</t>
+          <t>['Panqueca']</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>217.8</v>
+        <v>291.3</v>
       </c>
       <c r="D79" t="n">
-        <v>88.15000000000001</v>
+        <v>140.8833333333333</v>
       </c>
     </row>
     <row r="80">
@@ -1709,14 +1709,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>42.42</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>155.95</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['Estrogonofe']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>202.08</v>
+        <v>42.405</v>
       </c>
       <c r="D81" t="n">
-        <v>80.8</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="82">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>91</v>
+        <v>49.08</v>
       </c>
       <c r="D82" t="n">
-        <v>88.51666666666667</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="83">
@@ -1757,14 +1757,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Macarrão']</t>
+          <t>['Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>300.3</v>
+        <v>182</v>
       </c>
       <c r="D83" t="n">
-        <v>286.9666666666667</v>
+        <v>177.0333333333333</v>
       </c>
     </row>
     <row r="84">
@@ -1773,14 +1773,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>17.62</v>
+        <v>193.33</v>
       </c>
       <c r="D84" t="n">
-        <v>289.0166666666667</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="85">
@@ -1789,14 +1789,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Bolinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>70.83</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>259.8666666666667</v>
+        <v>236.65</v>
       </c>
     </row>
     <row r="86">
@@ -1805,14 +1805,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Lasanha']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>186.3</v>
+        <v>200.73334</v>
       </c>
       <c r="D86" t="n">
-        <v>236.2833333333333</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="87">
@@ -1821,14 +1821,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>170.58</v>
+        <v>293.08</v>
       </c>
       <c r="D87" t="n">
-        <v>228.9333333333333</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="88">
@@ -1837,14 +1837,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Macarrão']</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>59.5</v>
+        <v>422.73007</v>
       </c>
       <c r="D88" t="n">
-        <v>236.65</v>
+        <v>227.35</v>
       </c>
     </row>
     <row r="89">
@@ -1853,14 +1853,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Bolinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>393.73</v>
+        <v>382.3</v>
       </c>
       <c r="D89" t="n">
-        <v>288.4</v>
+        <v>229.4</v>
       </c>
     </row>
     <row r="90">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Lasanha']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>509.1999999999999</v>
+        <v>166.68</v>
       </c>
       <c r="D90" t="n">
-        <v>264.8166666666667</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="91">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>493.48</v>
+        <v>133.405</v>
       </c>
       <c r="D91" t="n">
-        <v>257.4666666666666</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="92">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>382.4</v>
+        <v>140.08</v>
       </c>
       <c r="D92" t="n">
-        <v>265.1833333333333</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="93">
@@ -1917,14 +1917,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Macarrão']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>663.6</v>
+        <v>204.66</v>
       </c>
       <c r="D93" t="n">
-        <v>277.6666666666667</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="94">
@@ -1933,14 +1933,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>380.92</v>
+        <v>70.84</v>
       </c>
       <c r="D94" t="n">
-        <v>279.7166666666667</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="95">
@@ -1949,14 +1949,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Empadão']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>434.13</v>
+        <v>212.06334</v>
       </c>
       <c r="D95" t="n">
-        <v>250.5666666666667</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="96">
@@ -1965,14 +1965,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>407.48</v>
+        <v>304.41</v>
       </c>
       <c r="D96" t="n">
-        <v>294.1166666666667</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="97">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Lasanha']</t>
+          <t>['Empadão', 'Macarrão']</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>549.6</v>
+        <v>434.06007</v>
       </c>
       <c r="D97" t="n">
-        <v>226.9833333333333</v>
+        <v>250.5666666666667</v>
       </c>
     </row>
     <row r="98">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Quiche']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>374.22</v>
+        <v>393.63</v>
       </c>
       <c r="D98" t="n">
-        <v>294.7833333333333</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="99">
@@ -2013,14 +2013,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Estrogonofe']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533.88</v>
+        <v>178.01</v>
       </c>
       <c r="D99" t="n">
-        <v>219.6333333333333</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="100">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['Macarrão', 'Bolinho']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>422.8</v>
+        <v>144.735</v>
       </c>
       <c r="D100" t="n">
-        <v>227.35</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="101">
@@ -2045,14 +2045,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>98.23999999999999</v>
+        <v>151.41</v>
       </c>
       <c r="D101" t="n">
-        <v>281.7666666666667</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="102">
@@ -2061,14 +2061,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Escondidinho', 'Macarrão']</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>151.45</v>
+        <v>300.24007</v>
       </c>
       <c r="D102" t="n">
-        <v>252.6166666666667</v>
+        <v>286.9666666666667</v>
       </c>
     </row>
     <row r="103">
@@ -2077,14 +2077,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Escondidinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>124.8</v>
+        <v>259.81</v>
       </c>
       <c r="D103" t="n">
-        <v>296.1666666666666</v>
+        <v>289.0166666666667</v>
       </c>
     </row>
     <row r="104">
@@ -2093,14 +2093,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Lasanha']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>266.92</v>
+        <v>44.19000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>229.0333333333333</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="105">
@@ -2109,14 +2109,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>91.53999999999999</v>
+        <v>17.59</v>
       </c>
       <c r="D105" t="n">
-        <v>296.8333333333333</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -2125,14 +2125,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Estrogonofe']</t>
+          <t>['Esfiha', 'Macarrão']</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>251.2</v>
+        <v>441.46341</v>
       </c>
       <c r="D106" t="n">
-        <v>221.6833333333333</v>
+        <v>294.1166666666667</v>
       </c>
     </row>
     <row r="107">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>140.12</v>
+        <v>401.03334</v>
       </c>
       <c r="D107" t="n">
-        <v>229.4</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="108">
@@ -2157,14 +2157,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>204.66</v>
+        <v>185.41334</v>
       </c>
       <c r="D108" t="n">
-        <v>223.4666666666667</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="109">
@@ -2173,14 +2173,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>178.01</v>
+        <v>158.81334</v>
       </c>
       <c r="D109" t="n">
-        <v>267.0166666666667</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="110">
@@ -2189,14 +2189,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha']</t>
+          <t>['Estrogonofe', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>320.13</v>
+        <v>277.76</v>
       </c>
       <c r="D110" t="n">
-        <v>199.8833333333333</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="111">
@@ -2205,14 +2205,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Estrogonofe', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>144.75</v>
+        <v>251.16</v>
       </c>
       <c r="D111" t="n">
-        <v>267.6833333333333</v>
+        <v>257.4666666666666</v>
       </c>
     </row>
     <row r="112">
@@ -2221,14 +2221,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe']</t>
+          <t>['Macarrão', 'Macarrão']</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>304.41</v>
+        <v>663.46014</v>
       </c>
       <c r="D112" t="n">
-        <v>192.5333333333333</v>
+        <v>277.6666666666667</v>
       </c>
     </row>
     <row r="113">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Macarrão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>193.33</v>
+        <v>623.03007</v>
       </c>
       <c r="D113" t="n">
-        <v>200.25</v>
+        <v>279.7166666666667</v>
       </c>
     </row>
     <row r="114">
@@ -2253,14 +2253,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Lasanha']</t>
+          <t>['Macarrão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>293.48</v>
+        <v>407.41007</v>
       </c>
       <c r="D114" t="n">
-        <v>243.4333333333333</v>
+        <v>226.9833333333333</v>
       </c>
     </row>
     <row r="115">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Estrogonofe']</t>
+          <t>['Macarrão', 'Quiche']</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>277.76</v>
+        <v>374.13507</v>
       </c>
       <c r="D115" t="n">
-        <v>236.0833333333333</v>
+        <v>294.7833333333333</v>
       </c>
     </row>
     <row r="116">
@@ -2285,14 +2285,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Macarrão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>166.68</v>
+        <v>380.81007</v>
       </c>
       <c r="D116" t="n">
-        <v>243.8</v>
+        <v>219.6333333333333</v>
       </c>
     </row>
     <row r="117">
@@ -2301,14 +2301,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha']</t>
+          <t>['Panqueca', 'Panqueca']</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>435.6</v>
+        <v>582.6</v>
       </c>
       <c r="D117" t="n">
-        <v>176.3</v>
+        <v>281.7666666666667</v>
       </c>
     </row>
     <row r="118">
@@ -2317,14 +2317,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Quiche']</t>
+          <t>['Panqueca', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>260.22</v>
+        <v>366.98</v>
       </c>
       <c r="D118" t="n">
-        <v>244.1</v>
+        <v>229.0333333333333</v>
       </c>
     </row>
     <row r="119">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe']</t>
+          <t>['Panqueca', 'Quiche']</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>419.88</v>
+        <v>333.705</v>
       </c>
       <c r="D119" t="n">
-        <v>168.95</v>
+        <v>296.8333333333333</v>
       </c>
     </row>
     <row r="120">
@@ -2349,14 +2349,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho']</t>
+          <t>['Panqueca', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>308.8</v>
+        <v>340.38</v>
       </c>
       <c r="D120" t="n">
-        <v>176.6666666666667</v>
+        <v>221.6833333333333</v>
       </c>
     </row>
     <row r="121">
@@ -2365,14 +2365,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['Quiche', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>244.5</v>
+        <v>151.36</v>
       </c>
       <c r="D121" t="n">
-        <v>236.75</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="122">
@@ -2381,14 +2381,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>133.42</v>
+        <v>118.085</v>
       </c>
       <c r="D122" t="n">
-        <v>244.4666666666666</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="123">
@@ -2397,14 +2397,14 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>404.16</v>
+        <v>124.76</v>
       </c>
       <c r="D123" t="n">
-        <v>161.6</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="124">
@@ -2413,14 +2413,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>293.08</v>
+        <v>91.485</v>
       </c>
       <c r="D124" t="n">
-        <v>169.3166666666667</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="125">
@@ -2429,14 +2429,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>182</v>
+        <v>98.16</v>
       </c>
       <c r="D125" t="n">
-        <v>177.0333333333333</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="126">
@@ -2445,14 +2445,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Lasanha']</t>
+          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>537.9299999999999</v>
+        <v>273</v>
       </c>
       <c r="D126" t="n">
-        <v>288.0333333333333</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="127">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>522.21</v>
+        <v>284.33</v>
       </c>
       <c r="D127" t="n">
-        <v>280.6833333333333</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="128">
@@ -2477,14 +2477,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>411.13</v>
+        <v>257.68</v>
       </c>
       <c r="D128" t="n">
-        <v>288.4</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="129">
@@ -2493,14 +2493,14 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>506.49</v>
+        <v>231.08</v>
       </c>
       <c r="D129" t="n">
-        <v>273.3333333333333</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="130">
@@ -2509,14 +2509,14 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>395.41</v>
+        <v>269.01</v>
       </c>
       <c r="D130" t="n">
-        <v>281.05</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="131">
@@ -2525,14 +2525,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>284.33</v>
+        <v>242.41</v>
       </c>
       <c r="D131" t="n">
-        <v>288.7666666666667</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="132">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Lasanha']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>653.4</v>
+        <v>242.36</v>
       </c>
       <c r="D132" t="n">
-        <v>264.45</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="133">
@@ -2557,14 +2557,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>637.6799999999999</v>
+        <v>215.76</v>
       </c>
       <c r="D133" t="n">
-        <v>257.1</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="134">
@@ -2573,14 +2573,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>526.5999999999999</v>
+        <v>189.16</v>
       </c>
       <c r="D134" t="n">
-        <v>264.8166666666667</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="135">
@@ -2589,14 +2589,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>621.96</v>
+        <v>253.69</v>
       </c>
       <c r="D135" t="n">
-        <v>249.75</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="136">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>510.88</v>
+        <v>227.09</v>
       </c>
       <c r="D136" t="n">
-        <v>257.4666666666666</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="137">
@@ -2621,14 +2621,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>399.8</v>
+        <v>200.49</v>
       </c>
       <c r="D137" t="n">
-        <v>265.1833333333333</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="138">
@@ -2637,14 +2637,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>606.24</v>
+        <v>227.04</v>
       </c>
       <c r="D138" t="n">
-        <v>242.4</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="139">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>495.16</v>
+        <v>200.44</v>
       </c>
       <c r="D139" t="n">
-        <v>250.1166666666667</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="140">
@@ -2669,14 +2669,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>384.08</v>
+        <v>173.84</v>
       </c>
       <c r="D140" t="n">
-        <v>257.8333333333333</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="141">
@@ -2685,14 +2685,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>273</v>
+        <v>147.24</v>
       </c>
       <c r="D141" t="n">
-        <v>265.55</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="142">
@@ -2701,14 +2701,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Bolinho']</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>291.4</v>
+        <v>91</v>
       </c>
       <c r="D142" t="n">
-        <v>176.6666666666667</v>
+        <v>88.51666666666667</v>
       </c>
     </row>
     <row r="143">
@@ -2717,14 +2717,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>109.8</v>
+        <v>102.33</v>
       </c>
       <c r="D143" t="n">
-        <v>225.9</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -2733,14 +2733,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>49.12</v>
+        <v>109.73334</v>
       </c>
       <c r="D144" t="n">
-        <v>140.8833333333333</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="145">
@@ -2749,14 +2749,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Estrogonofe']</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>102.33</v>
+        <v>202.08</v>
       </c>
       <c r="D145" t="n">
-        <v>111.7333333333333</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="146">
@@ -2765,14 +2765,14 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>75.68000000000001</v>
+        <v>217.8</v>
       </c>
       <c r="D146" t="n">
-        <v>155.2833333333333</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="147">
@@ -2781,14 +2781,14 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['Lasanha']</t>
+          <t>['Panqueca']</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>217.8</v>
+        <v>291.3</v>
       </c>
       <c r="D147" t="n">
-        <v>88.15000000000001</v>
+        <v>140.8833333333333</v>
       </c>
     </row>
     <row r="148">
@@ -2797,14 +2797,14 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>42.42</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>155.95</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -2813,14 +2813,14 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['Estrogonofe']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>202.08</v>
+        <v>42.405</v>
       </c>
       <c r="D149" t="n">
-        <v>80.8</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="150">
@@ -2829,14 +2829,14 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>91</v>
+        <v>49.08</v>
       </c>
       <c r="D150" t="n">
-        <v>88.51666666666667</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="151">
@@ -2845,14 +2845,14 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>17.62</v>
+        <v>182</v>
       </c>
       <c r="D151" t="n">
-        <v>289.0166666666667</v>
+        <v>177.0333333333333</v>
       </c>
     </row>
     <row r="152">
@@ -2861,14 +2861,14 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>70.83</v>
+        <v>193.33</v>
       </c>
       <c r="D152" t="n">
-        <v>259.8666666666667</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="153">
@@ -2877,14 +2877,14 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Lasanha']</t>
+          <t>['Bolinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>186.3</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>236.2833333333333</v>
+        <v>236.65</v>
       </c>
     </row>
     <row r="154">
@@ -2893,14 +2893,14 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>170.58</v>
+        <v>200.73334</v>
       </c>
       <c r="D154" t="n">
-        <v>228.9333333333333</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="155">
@@ -2909,14 +2909,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>59.5</v>
+        <v>293.08</v>
       </c>
       <c r="D155" t="n">
-        <v>236.65</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="156">
@@ -2925,14 +2925,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Bolinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>393.73</v>
+        <v>382.3</v>
       </c>
       <c r="D156" t="n">
-        <v>288.4</v>
+        <v>229.4</v>
       </c>
     </row>
     <row r="157">
@@ -2941,14 +2941,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Lasanha']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>509.1999999999999</v>
+        <v>166.68</v>
       </c>
       <c r="D157" t="n">
-        <v>264.8166666666667</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="158">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>493.48</v>
+        <v>133.405</v>
       </c>
       <c r="D158" t="n">
-        <v>257.4666666666666</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="159">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>382.4</v>
+        <v>140.08</v>
       </c>
       <c r="D159" t="n">
-        <v>265.1833333333333</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="160">
@@ -2989,14 +2989,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>98.23999999999999</v>
+        <v>204.66</v>
       </c>
       <c r="D160" t="n">
-        <v>281.7666666666667</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="161">
@@ -3005,14 +3005,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>151.45</v>
+        <v>70.84</v>
       </c>
       <c r="D161" t="n">
-        <v>252.6166666666667</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="162">
@@ -3021,14 +3021,14 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>124.8</v>
+        <v>212.06334</v>
       </c>
       <c r="D162" t="n">
-        <v>296.1666666666666</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="163">
@@ -3037,14 +3037,14 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Lasanha']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>266.92</v>
+        <v>304.41</v>
       </c>
       <c r="D163" t="n">
-        <v>229.0333333333333</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="164">
@@ -3053,14 +3053,14 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>91.53999999999999</v>
+        <v>393.63</v>
       </c>
       <c r="D164" t="n">
-        <v>296.8333333333333</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="165">
@@ -3069,14 +3069,14 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Estrogonofe']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>251.2</v>
+        <v>178.01</v>
       </c>
       <c r="D165" t="n">
-        <v>221.6833333333333</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="166">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>140.12</v>
+        <v>144.735</v>
       </c>
       <c r="D166" t="n">
-        <v>229.4</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="167">
@@ -3101,14 +3101,14 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>204.66</v>
+        <v>151.41</v>
       </c>
       <c r="D167" t="n">
-        <v>223.4666666666667</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="168">
@@ -3117,14 +3117,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Escondidinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>178.01</v>
+        <v>259.81</v>
       </c>
       <c r="D168" t="n">
-        <v>267.0166666666667</v>
+        <v>289.0166666666667</v>
       </c>
     </row>
     <row r="169">
@@ -3133,14 +3133,14 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>320.13</v>
+        <v>44.19000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>199.8833333333333</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="170">
@@ -3149,14 +3149,14 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>144.75</v>
+        <v>17.59</v>
       </c>
       <c r="D170" t="n">
-        <v>267.6833333333333</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="171">
@@ -3165,14 +3165,14 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>304.41</v>
+        <v>401.03334</v>
       </c>
       <c r="D171" t="n">
-        <v>192.5333333333333</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="172">
@@ -3181,14 +3181,14 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>193.33</v>
+        <v>185.41334</v>
       </c>
       <c r="D172" t="n">
-        <v>200.25</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="173">
@@ -3197,14 +3197,14 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Lasanha']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>293.48</v>
+        <v>158.81334</v>
       </c>
       <c r="D173" t="n">
-        <v>243.4333333333333</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="174">
@@ -3213,14 +3213,14 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Estrogonofe']</t>
+          <t>['Estrogonofe', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C174" t="n">
         <v>277.76</v>
       </c>
       <c r="D174" t="n">
-        <v>236.0833333333333</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="175">
@@ -3229,14 +3229,14 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Estrogonofe', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>166.68</v>
+        <v>251.16</v>
       </c>
       <c r="D175" t="n">
-        <v>243.8</v>
+        <v>257.4666666666666</v>
       </c>
     </row>
     <row r="176">
@@ -3245,14 +3245,14 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha']</t>
+          <t>['Macarrão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>435.6</v>
+        <v>6.959940000000017</v>
       </c>
       <c r="D176" t="n">
-        <v>176.3</v>
+        <v>279.7166666666667</v>
       </c>
     </row>
     <row r="177">
@@ -3261,14 +3261,14 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Quiche']</t>
+          <t>['Panqueca', 'Panqueca']</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>260.22</v>
+        <v>582.6</v>
       </c>
       <c r="D177" t="n">
-        <v>244.1</v>
+        <v>281.7666666666667</v>
       </c>
     </row>
     <row r="178">
@@ -3277,14 +3277,14 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe']</t>
+          <t>['Panqueca', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>419.88</v>
+        <v>366.98</v>
       </c>
       <c r="D178" t="n">
-        <v>168.95</v>
+        <v>229.0333333333333</v>
       </c>
     </row>
     <row r="179">
@@ -3293,14 +3293,14 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho']</t>
+          <t>['Panqueca', 'Quiche']</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>308.8</v>
+        <v>333.705</v>
       </c>
       <c r="D179" t="n">
-        <v>176.6666666666667</v>
+        <v>296.8333333333333</v>
       </c>
     </row>
     <row r="180">
@@ -3309,14 +3309,14 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['Quiche', 'Estrogonofe']</t>
+          <t>['Panqueca', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>244.5</v>
+        <v>340.38</v>
       </c>
       <c r="D180" t="n">
-        <v>236.75</v>
+        <v>221.6833333333333</v>
       </c>
     </row>
     <row r="181">
@@ -3325,14 +3325,14 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>133.42</v>
+        <v>151.36</v>
       </c>
       <c r="D181" t="n">
-        <v>244.4666666666666</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="182">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>404.16</v>
+        <v>118.085</v>
       </c>
       <c r="D182" t="n">
-        <v>161.6</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="183">
@@ -3357,14 +3357,14 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>293.08</v>
+        <v>124.76</v>
       </c>
       <c r="D183" t="n">
-        <v>169.3166666666667</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="184">
@@ -3373,14 +3373,14 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>182</v>
+        <v>91.485</v>
       </c>
       <c r="D184" t="n">
-        <v>177.0333333333333</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="185">
@@ -3389,14 +3389,14 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Lasanha']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>537.9299999999999</v>
+        <v>98.16</v>
       </c>
       <c r="D185" t="n">
-        <v>288.0333333333333</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="186">
@@ -3405,14 +3405,14 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>522.21</v>
+        <v>273</v>
       </c>
       <c r="D186" t="n">
-        <v>280.6833333333333</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="187">
@@ -3421,14 +3421,14 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['Empadão', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>411.13</v>
+        <v>284.33</v>
       </c>
       <c r="D187" t="n">
-        <v>288.4</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="188">
@@ -3437,14 +3437,14 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>506.49</v>
+        <v>257.68</v>
       </c>
       <c r="D188" t="n">
-        <v>273.3333333333333</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="189">
@@ -3453,14 +3453,14 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>395.41</v>
+        <v>231.08</v>
       </c>
       <c r="D189" t="n">
-        <v>281.05</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="190">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>284.33</v>
+        <v>269.01</v>
       </c>
       <c r="D190" t="n">
-        <v>288.7666666666667</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="191">
@@ -3485,14 +3485,14 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Lasanha']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>653.4</v>
+        <v>242.41</v>
       </c>
       <c r="D191" t="n">
-        <v>264.45</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="192">
@@ -3501,14 +3501,14 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>637.6799999999999</v>
+        <v>242.36</v>
       </c>
       <c r="D192" t="n">
-        <v>257.1</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="193">
@@ -3517,14 +3517,14 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Lasanha', 'Bolinho']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>526.5999999999999</v>
+        <v>215.76</v>
       </c>
       <c r="D193" t="n">
-        <v>264.8166666666667</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="194">
@@ -3533,14 +3533,14 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>621.96</v>
+        <v>189.16</v>
       </c>
       <c r="D194" t="n">
-        <v>249.75</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="195">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>510.88</v>
+        <v>253.69</v>
       </c>
       <c r="D195" t="n">
-        <v>257.4666666666666</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="196">
@@ -3565,14 +3565,14 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['Lasanha', 'Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>399.8</v>
+        <v>227.09</v>
       </c>
       <c r="D196" t="n">
-        <v>265.1833333333333</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="197">
@@ -3581,14 +3581,14 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>606.24</v>
+        <v>200.49</v>
       </c>
       <c r="D197" t="n">
-        <v>242.4</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="198">
@@ -3597,14 +3597,14 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>495.16</v>
+        <v>227.04</v>
       </c>
       <c r="D198" t="n">
-        <v>250.1166666666667</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="199">
@@ -3613,14 +3613,14 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>384.08</v>
+        <v>200.44</v>
       </c>
       <c r="D199" t="n">
-        <v>257.8333333333333</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="200">
@@ -3629,30 +3629,30 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>273</v>
+        <v>173.84</v>
       </c>
       <c r="D200" t="n">
-        <v>265.55</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>291.4</v>
+        <v>147.24</v>
       </c>
       <c r="D201" t="n">
-        <v>176.6666666666667</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="202">
@@ -3661,14 +3661,14 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Bolinho']</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>109.8</v>
+        <v>91</v>
       </c>
       <c r="D202" t="n">
-        <v>225.9</v>
+        <v>88.51666666666667</v>
       </c>
     </row>
     <row r="203">
@@ -3677,14 +3677,14 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>49.12</v>
+        <v>102.33</v>
       </c>
       <c r="D203" t="n">
-        <v>140.8833333333333</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="204">
@@ -3693,14 +3693,14 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>102.33</v>
+        <v>109.73334</v>
       </c>
       <c r="D204" t="n">
-        <v>111.7333333333333</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="205">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Estrogonofe']</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>75.68000000000001</v>
+        <v>202.08</v>
       </c>
       <c r="D205" t="n">
-        <v>155.2833333333333</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="206">
@@ -3725,14 +3725,14 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>42.42</v>
+        <v>217.8</v>
       </c>
       <c r="D206" t="n">
-        <v>155.95</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="207">
@@ -3741,14 +3741,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>202.08</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D207" t="n">
-        <v>80.8</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -3757,14 +3757,14 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>91</v>
+        <v>42.405</v>
       </c>
       <c r="D208" t="n">
-        <v>88.51666666666667</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="209">
@@ -3773,14 +3773,14 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>17.62</v>
+        <v>49.08</v>
       </c>
       <c r="D209" t="n">
-        <v>289.0166666666667</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="210">
@@ -3789,14 +3789,14 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>70.83</v>
+        <v>182</v>
       </c>
       <c r="D210" t="n">
-        <v>259.8666666666667</v>
+        <v>177.0333333333333</v>
       </c>
     </row>
     <row r="211">
@@ -3805,14 +3805,14 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>170.58</v>
+        <v>193.33</v>
       </c>
       <c r="D211" t="n">
-        <v>228.9333333333333</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="212">
@@ -3821,11 +3821,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>59.5</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="D212" t="n">
         <v>236.65</v>
@@ -3837,14 +3837,14 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>393.73</v>
+        <v>200.73334</v>
       </c>
       <c r="D213" t="n">
-        <v>288.4</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="214">
@@ -3853,14 +3853,14 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Estrogonofe']</t>
+          <t>['Bolinho', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>493.48</v>
+        <v>293.08</v>
       </c>
       <c r="D214" t="n">
-        <v>257.4666666666666</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="215">
@@ -3869,14 +3869,14 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Bolinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>382.4</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="D215" t="n">
-        <v>265.1833333333333</v>
+        <v>229.4</v>
       </c>
     </row>
     <row r="216">
@@ -3885,14 +3885,14 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>98.23999999999999</v>
+        <v>166.68</v>
       </c>
       <c r="D216" t="n">
-        <v>281.7666666666667</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="217">
@@ -3901,14 +3901,14 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>151.45</v>
+        <v>133.405</v>
       </c>
       <c r="D217" t="n">
-        <v>252.6166666666667</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="218">
@@ -3917,14 +3917,14 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>124.8</v>
+        <v>140.08</v>
       </c>
       <c r="D218" t="n">
-        <v>296.1666666666666</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="219">
@@ -3933,14 +3933,14 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>91.53999999999999</v>
+        <v>204.66</v>
       </c>
       <c r="D219" t="n">
-        <v>296.8333333333333</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="220">
@@ -3949,14 +3949,14 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Estrogonofe']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>251.2</v>
+        <v>70.84</v>
       </c>
       <c r="D220" t="n">
-        <v>221.6833333333333</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="221">
@@ -3965,14 +3965,14 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>140.12</v>
+        <v>212.06334</v>
       </c>
       <c r="D221" t="n">
-        <v>229.4</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="222">
@@ -3981,14 +3981,14 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>204.66</v>
+        <v>304.41</v>
       </c>
       <c r="D222" t="n">
-        <v>223.4666666666667</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="223">
@@ -3997,14 +3997,14 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>178.01</v>
+        <v>14.94</v>
       </c>
       <c r="D223" t="n">
-        <v>267.0166666666667</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="224">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>144.75</v>
+        <v>178.01</v>
       </c>
       <c r="D224" t="n">
-        <v>267.6833333333333</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="225">
@@ -4029,14 +4029,14 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>304.41</v>
+        <v>144.735</v>
       </c>
       <c r="D225" t="n">
-        <v>192.5333333333333</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="226">
@@ -4045,14 +4045,14 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>193.33</v>
+        <v>151.41</v>
       </c>
       <c r="D226" t="n">
-        <v>200.25</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="227">
@@ -4061,14 +4061,14 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Estrogonofe']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>277.76</v>
+        <v>44.19000000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>236.0833333333333</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="228">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>166.68</v>
+        <v>17.59</v>
       </c>
       <c r="D228" t="n">
-        <v>243.8</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="229">
@@ -4093,14 +4093,14 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['Quiche', 'Estrogonofe']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>244.5</v>
+        <v>22.34334</v>
       </c>
       <c r="D229" t="n">
-        <v>236.75</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="230">
@@ -4109,14 +4109,14 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>133.42</v>
+        <v>185.41334</v>
       </c>
       <c r="D230" t="n">
-        <v>244.4666666666666</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="231">
@@ -4125,14 +4125,14 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>404.16</v>
+        <v>158.81334</v>
       </c>
       <c r="D231" t="n">
-        <v>161.6</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="232">
@@ -4141,14 +4141,14 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho']</t>
+          <t>['Estrogonofe', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>293.08</v>
+        <v>277.76</v>
       </c>
       <c r="D232" t="n">
-        <v>169.3166666666667</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="233">
@@ -4157,14 +4157,14 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Estrogonofe', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>182</v>
+        <v>251.16</v>
       </c>
       <c r="D233" t="n">
-        <v>177.0333333333333</v>
+        <v>257.4666666666666</v>
       </c>
     </row>
     <row r="234">
@@ -4173,14 +4173,14 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>506.49</v>
+        <v>151.36</v>
       </c>
       <c r="D234" t="n">
-        <v>273.3333333333333</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="235">
@@ -4189,14 +4189,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['Empadão', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>395.41</v>
+        <v>118.085</v>
       </c>
       <c r="D235" t="n">
-        <v>281.05</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="236">
@@ -4205,14 +4205,14 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>284.33</v>
+        <v>124.76</v>
       </c>
       <c r="D236" t="n">
-        <v>288.7666666666667</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="237">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Estrogonofe']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>606.24</v>
+        <v>91.485</v>
       </c>
       <c r="D237" t="n">
-        <v>242.4</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="238">
@@ -4237,14 +4237,14 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Estrogonofe', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>495.16</v>
+        <v>98.16</v>
       </c>
       <c r="D238" t="n">
-        <v>250.1166666666667</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="239">
@@ -4253,14 +4253,14 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['Estrogonofe', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>384.08</v>
+        <v>273</v>
       </c>
       <c r="D239" t="n">
-        <v>257.8333333333333</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="240">
@@ -4269,238 +4269,238 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>273</v>
+        <v>284.33</v>
       </c>
       <c r="D240" t="n">
-        <v>265.55</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>291.4</v>
+        <v>257.68</v>
       </c>
       <c r="D241" t="n">
-        <v>176.6666666666667</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>109.8</v>
+        <v>231.08</v>
       </c>
       <c r="D242" t="n">
-        <v>225.9</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>49.12</v>
+        <v>269.01</v>
       </c>
       <c r="D243" t="n">
-        <v>140.8833333333333</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>102.33</v>
+        <v>242.41</v>
       </c>
       <c r="D244" t="n">
-        <v>111.7333333333333</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>75.68000000000001</v>
+        <v>242.36</v>
       </c>
       <c r="D245" t="n">
-        <v>155.2833333333333</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>42.42</v>
+        <v>215.76</v>
       </c>
       <c r="D246" t="n">
-        <v>155.95</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>91</v>
+        <v>189.16</v>
       </c>
       <c r="D247" t="n">
-        <v>88.51666666666667</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17.62</v>
+        <v>253.69</v>
       </c>
       <c r="D248" t="n">
-        <v>289.0166666666667</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>70.83</v>
+        <v>227.09</v>
       </c>
       <c r="D249" t="n">
-        <v>259.8666666666667</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>59.5</v>
+        <v>200.49</v>
       </c>
       <c r="D250" t="n">
-        <v>236.65</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>393.73</v>
+        <v>227.04</v>
       </c>
       <c r="D251" t="n">
-        <v>288.4</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>382.4</v>
+        <v>200.44</v>
       </c>
       <c r="D252" t="n">
-        <v>265.1833333333333</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>98.23999999999999</v>
+        <v>173.84</v>
       </c>
       <c r="D253" t="n">
-        <v>281.7666666666667</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>151.45</v>
+        <v>147.24</v>
       </c>
       <c r="D254" t="n">
-        <v>252.6166666666667</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="255">
@@ -4509,14 +4509,14 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Bolinho']</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>124.8</v>
+        <v>91</v>
       </c>
       <c r="D255" t="n">
-        <v>296.1666666666666</v>
+        <v>88.51666666666667</v>
       </c>
     </row>
     <row r="256">
@@ -4525,14 +4525,14 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>91.53999999999999</v>
+        <v>102.33</v>
       </c>
       <c r="D256" t="n">
-        <v>296.8333333333333</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="257">
@@ -4541,14 +4541,14 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>140.12</v>
+        <v>109.73334</v>
       </c>
       <c r="D257" t="n">
-        <v>229.4</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="258">
@@ -4557,14 +4557,14 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>204.66</v>
+        <v>217.8</v>
       </c>
       <c r="D258" t="n">
-        <v>223.4666666666667</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="259">
@@ -4573,14 +4573,14 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>178.01</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>267.0166666666667</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="260">
@@ -4589,14 +4589,14 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>144.75</v>
+        <v>42.405</v>
       </c>
       <c r="D260" t="n">
-        <v>267.6833333333333</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="261">
@@ -4605,14 +4605,14 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>193.33</v>
+        <v>49.08</v>
       </c>
       <c r="D261" t="n">
-        <v>200.25</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="262">
@@ -4621,14 +4621,14 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>166.68</v>
+        <v>182</v>
       </c>
       <c r="D262" t="n">
-        <v>243.8</v>
+        <v>177.0333333333333</v>
       </c>
     </row>
     <row r="263">
@@ -4637,14 +4637,14 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>133.42</v>
+        <v>193.33</v>
       </c>
       <c r="D263" t="n">
-        <v>244.4666666666666</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="264">
@@ -4653,14 +4653,14 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>182</v>
+        <v>59.51000000000001</v>
       </c>
       <c r="D264" t="n">
-        <v>177.0333333333333</v>
+        <v>236.65</v>
       </c>
     </row>
     <row r="265">
@@ -4669,14 +4669,14 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>284.33</v>
+        <v>200.73334</v>
       </c>
       <c r="D265" t="n">
-        <v>288.7666666666667</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="266">
@@ -4685,27 +4685,27 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Panqueca']</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>273</v>
+        <v>3.609999999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>265.55</v>
+        <v>229.4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['Panqueca']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>203.98</v>
+        <v>166.68</v>
       </c>
       <c r="D267" t="n">
         <v>176.6666666666667</v>
@@ -4713,887 +4713,887 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>109.8</v>
+        <v>133.405</v>
       </c>
       <c r="D268" t="n">
-        <v>225.9</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>49.12</v>
+        <v>140.08</v>
       </c>
       <c r="D269" t="n">
-        <v>140.8833333333333</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>102.33</v>
+        <v>204.66</v>
       </c>
       <c r="D270" t="n">
-        <v>111.7333333333333</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>75.68000000000001</v>
+        <v>70.84</v>
       </c>
       <c r="D271" t="n">
-        <v>155.2833333333333</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>42.42</v>
+        <v>212.06334</v>
       </c>
       <c r="D272" t="n">
-        <v>155.95</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Empadão', 'Estrogonofe']</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>91</v>
+        <v>1.290000000000006</v>
       </c>
       <c r="D273" t="n">
-        <v>88.51666666666667</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>17.62</v>
+        <v>14.94</v>
       </c>
       <c r="D274" t="n">
-        <v>289.0166666666667</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>70.83</v>
+        <v>178.01</v>
       </c>
       <c r="D275" t="n">
-        <v>259.8666666666667</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>59.5</v>
+        <v>144.735</v>
       </c>
       <c r="D276" t="n">
-        <v>236.65</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>306.31</v>
+        <v>151.41</v>
       </c>
       <c r="D277" t="n">
-        <v>288.4</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>294.98</v>
+        <v>44.19000000000001</v>
       </c>
       <c r="D278" t="n">
-        <v>265.1833333333333</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>98.23999999999999</v>
+        <v>17.59</v>
       </c>
       <c r="D279" t="n">
-        <v>281.7666666666667</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>151.45</v>
+        <v>22.34334</v>
       </c>
       <c r="D280" t="n">
-        <v>252.6166666666667</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>124.8</v>
+        <v>185.41334</v>
       </c>
       <c r="D281" t="n">
-        <v>296.1666666666666</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>91.53999999999999</v>
+        <v>158.81334</v>
       </c>
       <c r="D282" t="n">
-        <v>296.8333333333333</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>140.12</v>
+        <v>151.36</v>
       </c>
       <c r="D283" t="n">
-        <v>229.4</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>204.66</v>
+        <v>118.085</v>
       </c>
       <c r="D284" t="n">
-        <v>223.4666666666667</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>178.01</v>
+        <v>124.76</v>
       </c>
       <c r="D285" t="n">
-        <v>267.0166666666667</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>144.75</v>
+        <v>91.485</v>
       </c>
       <c r="D286" t="n">
-        <v>267.6833333333333</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>193.33</v>
+        <v>98.16</v>
       </c>
       <c r="D287" t="n">
-        <v>200.25</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>166.68</v>
+        <v>273</v>
       </c>
       <c r="D288" t="n">
-        <v>243.8</v>
+        <v>265.55</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>133.42</v>
+        <v>284.33</v>
       </c>
       <c r="D289" t="n">
-        <v>244.4666666666666</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>182</v>
+        <v>257.68</v>
       </c>
       <c r="D290" t="n">
-        <v>177.0333333333333</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>284.33</v>
+        <v>231.08</v>
       </c>
       <c r="D291" t="n">
-        <v>288.7666666666667</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>273</v>
+        <v>269.01</v>
       </c>
       <c r="D292" t="n">
-        <v>265.55</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>109.8</v>
+        <v>242.41</v>
       </c>
       <c r="D293" t="n">
-        <v>225.9</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>49.12</v>
+        <v>242.36</v>
       </c>
       <c r="D294" t="n">
-        <v>140.8833333333333</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>90.95999999999999</v>
+        <v>215.76</v>
       </c>
       <c r="D295" t="n">
-        <v>111.7333333333333</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>75.68000000000001</v>
+        <v>189.16</v>
       </c>
       <c r="D296" t="n">
-        <v>155.2833333333333</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>42.42</v>
+        <v>253.69</v>
       </c>
       <c r="D297" t="n">
-        <v>155.95</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>['Bolinho']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>91</v>
+        <v>227.09</v>
       </c>
       <c r="D298" t="n">
-        <v>88.51666666666667</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>17.62</v>
+        <v>200.49</v>
       </c>
       <c r="D299" t="n">
-        <v>289.0166666666667</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>59.45999999999999</v>
+        <v>227.04</v>
       </c>
       <c r="D300" t="n">
-        <v>259.8666666666667</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Bolinho']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>59.5</v>
+        <v>200.44</v>
       </c>
       <c r="D301" t="n">
-        <v>236.65</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3.539999999999992</v>
+        <v>173.84</v>
       </c>
       <c r="D302" t="n">
-        <v>288.4</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Bolinho']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3.579999999999998</v>
+        <v>147.24</v>
       </c>
       <c r="D303" t="n">
-        <v>265.1833333333333</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Empadão']</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>98.23999999999999</v>
+        <v>90.95999999999999</v>
       </c>
       <c r="D304" t="n">
-        <v>281.7666666666667</v>
+        <v>111.7333333333333</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>140.08</v>
+        <v>109.73334</v>
       </c>
       <c r="D305" t="n">
-        <v>252.6166666666667</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Lasanha']</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>124.8</v>
+        <v>217.8</v>
       </c>
       <c r="D306" t="n">
-        <v>296.1666666666666</v>
+        <v>225.9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>91.53999999999999</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="D307" t="n">
-        <v>296.8333333333333</v>
+        <v>88.15000000000001</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Bolinho']</t>
+          <t>['Quiche']</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>140.12</v>
+        <v>42.405</v>
       </c>
       <c r="D308" t="n">
-        <v>229.4</v>
+        <v>155.95</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Sanduíche natural']</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>181.92</v>
+        <v>49.08</v>
       </c>
       <c r="D309" t="n">
-        <v>223.4666666666667</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>166.64</v>
+        <v>76.95999999999999</v>
       </c>
       <c r="D310" t="n">
-        <v>267.0166666666667</v>
+        <v>200.25</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Bolinho', 'Esfiha']</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>133.38</v>
+        <v>95.73334</v>
       </c>
       <c r="D311" t="n">
-        <v>267.6833333333333</v>
+        <v>243.8</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>181.96</v>
+        <v>61.68000000000001</v>
       </c>
       <c r="D312" t="n">
-        <v>200.25</v>
+        <v>176.6666666666667</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)', 'Bolinho']</t>
+          <t>['Bolinho', 'Quiche']</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>166.68</v>
+        <v>28.405</v>
       </c>
       <c r="D313" t="n">
-        <v>243.8</v>
+        <v>244.4666666666666</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>['Quiche', 'Bolinho']</t>
+          <t>['Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>133.42</v>
+        <v>35.08</v>
       </c>
       <c r="D314" t="n">
-        <v>244.4666666666666</v>
+        <v>169.3166666666667</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Empadão']</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>182</v>
+        <v>181.92</v>
       </c>
       <c r="D315" t="n">
-        <v>177.0333333333333</v>
+        <v>223.4666666666667</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>['Empadão', 'Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Escondidinho']</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>272.96</v>
+        <v>59.47</v>
       </c>
       <c r="D316" t="n">
-        <v>288.7666666666667</v>
+        <v>259.8666666666667</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>['Bolinho', 'Bolinho', 'Bolinho']</t>
+          <t>['Empadão', 'Esfiha']</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>273</v>
+        <v>200.69334</v>
       </c>
       <c r="D317" t="n">
-        <v>265.55</v>
+        <v>267.0166666666667</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Empadão', 'Panqueca']</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>109.8</v>
+        <v>3.569999999999993</v>
       </c>
       <c r="D318" t="n">
-        <v>225.9</v>
+        <v>252.6166666666667</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>49.12</v>
+        <v>166.64</v>
       </c>
       <c r="D319" t="n">
-        <v>140.8833333333333</v>
+        <v>199.8833333333333</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>['Empadão']</t>
+          <t>['Empadão', 'Quiche']</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>90.95999999999999</v>
+        <v>133.365</v>
       </c>
       <c r="D320" t="n">
-        <v>111.7333333333333</v>
+        <v>267.6833333333333</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>75.68000000000001</v>
+        <v>140.04</v>
       </c>
       <c r="D321" t="n">
-        <v>155.2833333333333</v>
+        <v>192.5333333333333</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>42.42</v>
+        <v>44.19000000000001</v>
       </c>
       <c r="D322" t="n">
-        <v>155.95</v>
+        <v>236.2833333333333</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5601,410 +5601,1898 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>17.62</v>
+        <v>17.59</v>
       </c>
       <c r="D323" t="n">
-        <v>289.0166666666667</v>
+        <v>228.9333333333333</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Empadão']</t>
+          <t>['Esfiha', 'Panqueca']</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>59.45999999999999</v>
+        <v>22.34334</v>
       </c>
       <c r="D324" t="n">
-        <v>259.8666666666667</v>
+        <v>296.1666666666666</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>['Panqueca', 'Empadão']</t>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3.539999999999992</v>
+        <v>185.41334</v>
       </c>
       <c r="D325" t="n">
-        <v>288.4</v>
+        <v>243.4333333333333</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Esfiha', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>98.23999999999999</v>
+        <v>158.81334</v>
       </c>
       <c r="D326" t="n">
-        <v>281.7666666666667</v>
+        <v>236.0833333333333</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Empadão']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>140.08</v>
+        <v>151.36</v>
       </c>
       <c r="D327" t="n">
-        <v>252.6166666666667</v>
+        <v>176.3</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>124.8</v>
+        <v>118.085</v>
       </c>
       <c r="D328" t="n">
-        <v>296.1666666666666</v>
+        <v>244.1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>91.53999999999999</v>
+        <v>124.76</v>
       </c>
       <c r="D329" t="n">
-        <v>296.8333333333333</v>
+        <v>168.95</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>['Empadão', 'Empadão']</t>
+          <t>['Quiche', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>181.92</v>
+        <v>91.485</v>
       </c>
       <c r="D330" t="n">
-        <v>223.4666666666667</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>166.64</v>
+        <v>98.16</v>
       </c>
       <c r="D331" t="n">
-        <v>267.0166666666667</v>
+        <v>161.6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>['Empadão', 'Quiche']</t>
+          <t>['Bolinho', 'Bolinho', 'Empadão']</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>133.38</v>
+        <v>62.95999999999999</v>
       </c>
       <c r="D332" t="n">
-        <v>267.6833333333333</v>
+        <v>288.7666666666667</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>109.8</v>
+        <v>47.68000000000001</v>
       </c>
       <c r="D333" t="n">
-        <v>225.9</v>
+        <v>265.1833333333333</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>49.12</v>
+        <v>21.08</v>
       </c>
       <c r="D334" t="n">
-        <v>140.8833333333333</v>
+        <v>257.8333333333333</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>75.68000000000001</v>
+        <v>152.64</v>
       </c>
       <c r="D335" t="n">
-        <v>155.2833333333333</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>42.42</v>
+        <v>126.04</v>
       </c>
       <c r="D336" t="n">
-        <v>155.95</v>
+        <v>281.05</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>17.62</v>
+        <v>137.36</v>
       </c>
       <c r="D337" t="n">
-        <v>289.0166666666667</v>
+        <v>264.8166666666667</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>98.23999999999999</v>
+        <v>110.76</v>
       </c>
       <c r="D338" t="n">
-        <v>281.7666666666667</v>
+        <v>257.4666666666667</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>124.8</v>
+        <v>84.16</v>
       </c>
       <c r="D339" t="n">
-        <v>296.1666666666666</v>
+        <v>250.1166666666667</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>91.53999999999999</v>
+        <v>242.32</v>
       </c>
       <c r="D340" t="n">
-        <v>296.8333333333333</v>
+        <v>288.0333333333333</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>['Esfiha']</t>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>109.8</v>
+        <v>215.72</v>
       </c>
       <c r="D341" t="n">
-        <v>225.9</v>
+        <v>280.6833333333333</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>['Sanduíche natural']</t>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>49.12</v>
+        <v>189.12</v>
       </c>
       <c r="D342" t="n">
-        <v>140.8833333333333</v>
+        <v>273.3333333333333</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>['Pão de queijo (12 unid)']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>75.68000000000001</v>
+        <v>227.04</v>
       </c>
       <c r="D343" t="n">
-        <v>155.2833333333333</v>
+        <v>264.45</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>['Quiche']</t>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>42.42</v>
+        <v>200.44</v>
       </c>
       <c r="D344" t="n">
-        <v>155.95</v>
+        <v>257.1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>['Escondidinho', 'Sanduíche natural']</t>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>17.62</v>
+        <v>173.84</v>
       </c>
       <c r="D345" t="n">
-        <v>289.0166666666667</v>
+        <v>249.75</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>98.23999999999999</v>
+        <v>147.24</v>
       </c>
       <c r="D346" t="n">
-        <v>281.7666666666667</v>
+        <v>242.4</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>['Sanduíche natural', 'Pão de queijo (12 unid)']</t>
+          <t>['Esfiha']</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>124.8</v>
+        <v>109.73334</v>
       </c>
       <c r="D347" t="n">
-        <v>296.1666666666666</v>
+        <v>155.2833333333333</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
+        <v>7</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>['Lasanha']</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D348" t="n">
+        <v>225.9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>7</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>75.68000000000001</v>
+      </c>
+      <c r="D349" t="n">
+        <v>88.15000000000001</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>7</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>['Quiche']</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>42.405</v>
+      </c>
+      <c r="D350" t="n">
+        <v>155.95</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>7</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="D351" t="n">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>7</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>95.73334</v>
+      </c>
+      <c r="D352" t="n">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>7</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>61.68000000000001</v>
+      </c>
+      <c r="D353" t="n">
+        <v>176.6666666666667</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>7</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>28.405</v>
+      </c>
+      <c r="D354" t="n">
+        <v>244.4666666666666</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>7</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D355" t="n">
+        <v>169.3166666666667</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>7</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>98.36333999999999</v>
+      </c>
+      <c r="D356" t="n">
+        <v>267.0166666666667</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>7</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>64.31</v>
+      </c>
+      <c r="D357" t="n">
+        <v>199.8833333333333</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>7</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="D358" t="n">
+        <v>267.6833333333333</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>7</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D359" t="n">
+        <v>192.5333333333333</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>7</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>['Escondidinho', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>44.19000000000001</v>
+      </c>
+      <c r="D360" t="n">
+        <v>236.2833333333333</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>7</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="D361" t="n">
+        <v>228.9333333333333</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>7</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Panqueca']</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>22.34334</v>
+      </c>
+      <c r="D362" t="n">
+        <v>296.1666666666666</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>7</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>185.41334</v>
+      </c>
+      <c r="D363" t="n">
+        <v>243.4333333333333</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>7</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>158.81334</v>
+      </c>
+      <c r="D364" t="n">
+        <v>236.0833333333333</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>7</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>151.36</v>
+      </c>
+      <c r="D365" t="n">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>7</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>118.085</v>
+      </c>
+      <c r="D366" t="n">
+        <v>244.1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>7</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>124.76</v>
+      </c>
+      <c r="D367" t="n">
+        <v>168.95</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>7</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>['Quiche', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>91.485</v>
+      </c>
+      <c r="D368" t="n">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>7</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="D369" t="n">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>7</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Bolinho', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>47.68000000000001</v>
+      </c>
+      <c r="D370" t="n">
+        <v>265.1833333333333</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>7</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D371" t="n">
+        <v>257.8333333333333</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>7</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Empadão', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>50.31000000000001</v>
+      </c>
+      <c r="D372" t="n">
+        <v>288.4</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>7</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D373" t="n">
+        <v>281.05</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>7</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>137.36</v>
+      </c>
+      <c r="D374" t="n">
+        <v>264.8166666666667</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>7</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>110.76</v>
+      </c>
+      <c r="D375" t="n">
+        <v>257.4666666666667</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>7</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="D376" t="n">
+        <v>250.1166666666667</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>7</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>139.99</v>
+      </c>
+      <c r="D377" t="n">
+        <v>288.0333333333333</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>7</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>113.39</v>
+      </c>
+      <c r="D378" t="n">
+        <v>280.6833333333333</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>7</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>86.78999999999999</v>
+      </c>
+      <c r="D379" t="n">
+        <v>273.3333333333333</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>7</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Pão de queijo (12 unid)']</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>227.04</v>
+      </c>
+      <c r="D380" t="n">
+        <v>264.45</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>7</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Pão de queijo (12 unid)', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>200.44</v>
+      </c>
+      <c r="D381" t="n">
+        <v>257.1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>7</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>['Pão de queijo (12 unid)', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>173.84</v>
+      </c>
+      <c r="D382" t="n">
+        <v>249.75</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>7</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="D383" t="n">
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>8</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>['Esfiha']</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>109.73334</v>
+      </c>
+      <c r="D384" t="n">
+        <v>155.2833333333333</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>8</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>['Lasanha']</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="D385" t="n">
+        <v>225.9</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>8</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>['Quiche']</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>42.405</v>
+      </c>
+      <c r="D386" t="n">
+        <v>155.95</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>8</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="D387" t="n">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>8</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>95.73334</v>
+      </c>
+      <c r="D388" t="n">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>8</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>28.405</v>
+      </c>
+      <c r="D389" t="n">
+        <v>244.4666666666666</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>8</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D390" t="n">
+        <v>169.3166666666667</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>8</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>98.36333999999999</v>
+      </c>
+      <c r="D391" t="n">
+        <v>267.0166666666667</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>8</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="D392" t="n">
+        <v>267.6833333333333</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>8</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D393" t="n">
+        <v>192.5333333333333</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>8</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="D394" t="n">
+        <v>228.9333333333333</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>8</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Panqueca']</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>22.34334</v>
+      </c>
+      <c r="D395" t="n">
+        <v>296.1666666666666</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>8</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>158.81334</v>
+      </c>
+      <c r="D396" t="n">
+        <v>236.0833333333333</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>8</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>['Quiche', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>91.485</v>
+      </c>
+      <c r="D397" t="n">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>8</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="D398" t="n">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>8</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D399" t="n">
+        <v>257.8333333333333</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>8</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D400" t="n">
+        <v>281.05</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>8</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="D401" t="n">
+        <v>250.1166666666667</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>8</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>86.78999999999999</v>
+      </c>
+      <c r="D402" t="n">
+        <v>273.3333333333333</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>8</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="D403" t="n">
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>9</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>['Esfiha']</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>109.73334</v>
+      </c>
+      <c r="D404" t="n">
+        <v>155.2833333333333</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>9</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>['Quiche']</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>42.405</v>
+      </c>
+      <c r="D405" t="n">
+        <v>155.95</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>9</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="D406" t="n">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>9</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>95.73334</v>
+      </c>
+      <c r="D407" t="n">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>9</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>28.405</v>
+      </c>
+      <c r="D408" t="n">
+        <v>244.4666666666666</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>9</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D409" t="n">
+        <v>169.3166666666667</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>9</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>98.36333999999999</v>
+      </c>
+      <c r="D410" t="n">
+        <v>267.0166666666667</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>9</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="D411" t="n">
+        <v>267.6833333333333</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>9</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D412" t="n">
+        <v>192.5333333333333</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>9</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="D413" t="n">
+        <v>228.9333333333333</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>9</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Panqueca']</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>22.34334</v>
+      </c>
+      <c r="D414" t="n">
+        <v>296.1666666666666</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>9</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>158.81334</v>
+      </c>
+      <c r="D415" t="n">
+        <v>236.0833333333333</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>9</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>['Quiche', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>91.485</v>
+      </c>
+      <c r="D416" t="n">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>9</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="D417" t="n">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>9</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D418" t="n">
+        <v>257.8333333333333</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>9</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D419" t="n">
+        <v>281.05</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>9</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="D420" t="n">
+        <v>250.1166666666667</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>9</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>86.78999999999999</v>
+      </c>
+      <c r="D421" t="n">
+        <v>273.3333333333333</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>9</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="D422" t="n">
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
         <v>10</v>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>['Sanduíche natural', 'Quiche']</t>
-        </is>
-      </c>
-      <c r="C348" t="n">
-        <v>91.53999999999999</v>
-      </c>
-      <c r="D348" t="n">
-        <v>296.8333333333333</v>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>['Esfiha']</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>109.73334</v>
+      </c>
+      <c r="D423" t="n">
+        <v>155.2833333333333</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>10</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>['Quiche']</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>42.405</v>
+      </c>
+      <c r="D424" t="n">
+        <v>155.95</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>10</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>49.08</v>
+      </c>
+      <c r="D425" t="n">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>10</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>95.73334</v>
+      </c>
+      <c r="D426" t="n">
+        <v>243.8</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>10</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>28.405</v>
+      </c>
+      <c r="D427" t="n">
+        <v>244.4666666666666</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>10</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D428" t="n">
+        <v>169.3166666666667</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>10</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Esfiha']</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>98.36333999999999</v>
+      </c>
+      <c r="D429" t="n">
+        <v>267.0166666666667</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>10</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Quiche']</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="D430" t="n">
+        <v>267.6833333333333</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>10</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="D431" t="n">
+        <v>192.5333333333333</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>10</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>['Escondidinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>17.59</v>
+      </c>
+      <c r="D432" t="n">
+        <v>228.9333333333333</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>10</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Panqueca']</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>22.34334</v>
+      </c>
+      <c r="D433" t="n">
+        <v>296.1666666666666</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>10</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>['Esfiha', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>158.81334</v>
+      </c>
+      <c r="D434" t="n">
+        <v>236.0833333333333</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>10</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>['Quiche', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>91.485</v>
+      </c>
+      <c r="D435" t="n">
+        <v>236.75</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>10</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>98.16</v>
+      </c>
+      <c r="D436" t="n">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>10</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Bolinho', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="D437" t="n">
+        <v>257.8333333333333</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>10</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Empadão', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="D438" t="n">
+        <v>281.05</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>10</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>['Bolinho', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>84.16</v>
+      </c>
+      <c r="D439" t="n">
+        <v>250.1166666666667</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>10</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>['Empadão', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>86.78999999999999</v>
+      </c>
+      <c r="D440" t="n">
+        <v>273.3333333333333</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>10</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>['Sanduíche natural', 'Sanduíche natural', 'Sanduíche natural']</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="D441" t="n">
+        <v>242.4</v>
       </c>
     </row>
   </sheetData>
